--- a/Avancement/PlanningGRP3.xlsx
+++ b/Avancement/PlanningGRP3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Baptiste\Desktop\Projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Baptiste\Desktop\Projet\Avancement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD93D1E7-B7CC-4EB0-8006-7B7D4D7662A1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE722F30-642A-4006-A2AE-4F27DAAD6294}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5580" xr2:uid="{5486202A-E26D-4B4B-B52B-BB5D5C8B5EF6}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>Tâches</t>
   </si>
@@ -555,7 +555,7 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="51" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,9 +638,7 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="F4" s="7"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -656,9 +654,7 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="F5" s="7"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="4"/>
@@ -674,9 +670,7 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="F6" s="7"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="4"/>
@@ -692,9 +686,7 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="F7" s="7"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="4"/>
@@ -712,7 +704,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="3"/>
+      <c r="H8" s="7"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -785,9 +777,7 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="8" t="s">
-        <v>2</v>
-      </c>
+      <c r="F13" s="8"/>
       <c r="G13" s="3"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -805,7 +795,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="7"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -861,9 +851,7 @@
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="E18" s="7"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -879,9 +867,7 @@
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="E19" s="7"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -897,9 +883,7 @@
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="E20" s="7"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -915,9 +899,7 @@
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="E21" s="7"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -934,9 +916,7 @@
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="F22" s="7"/>
       <c r="G22" s="3"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -952,11 +932,9 @@
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="4"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -1012,9 +990,7 @@
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="E27" s="7"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -1030,9 +1006,7 @@
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="E28" s="7"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -1049,9 +1023,7 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="F29" s="7"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -1067,9 +1039,7 @@
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="F30" s="7"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -1085,9 +1055,7 @@
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="8" t="s">
-        <v>2</v>
-      </c>
+      <c r="F31" s="8"/>
       <c r="G31" s="3"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -1103,9 +1071,7 @@
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="8" t="s">
-        <v>2</v>
-      </c>
+      <c r="F32" s="8"/>
       <c r="G32" s="3"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -1121,9 +1087,7 @@
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="8" t="s">
-        <v>2</v>
-      </c>
+      <c r="F33" s="8"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>

--- a/Avancement/PlanningGRP3.xlsx
+++ b/Avancement/PlanningGRP3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Baptiste\Desktop\Projet\Avancement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE722F30-642A-4006-A2AE-4F27DAAD6294}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF811663-DB93-4674-B21E-EC3AC5FBBB6A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5580" xr2:uid="{5486202A-E26D-4B4B-B52B-BB5D5C8B5EF6}"/>
   </bookViews>
@@ -555,7 +555,7 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="51" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
